--- a/Files/50000-51000/50282/B50282_RequestList.xlsx
+++ b/Files/50000-51000/50282/B50282_RequestList.xlsx
@@ -25,7 +25,7 @@
     <t>ОФИС гр. РУСЕ и ОФИС гр. СОФИЯ</t>
   </si>
   <si>
-    <t>ЗАЯВКА № B50282 / Дата 28.06.2016</t>
+    <t>ЗАЯВКА № B50282 / Дата 03.07.2016</t>
   </si>
   <si>
     <t>7.1 МИКРОБИОЛОГИЧНО ИЗПИТВАНЕ</t>
@@ -61,7 +61,7 @@
     <t>3234</t>
   </si>
   <si>
-    <t>Срок за изпитване: 4 дни</t>
+    <t>Срок за изпитване: 7 дни</t>
   </si>
   <si>
     <t>Приел пробата......</t>
